--- a/BioSTEAM 2.x.x/biorefineries/actag/tables.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/actag/tables.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yrc2\Code\bioindustrial-park\BioSTEAM 2.x.x\biorefineries\actag\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687022A4-96B8-472F-B8E2-1C4C868B2F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1488" yWindow="2004" windowWidth="20532" windowHeight="10596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="VOC" sheetId="1" r:id="rId1"/>
     <sheet name="CAPEX" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>Price [$/ton]</t>
   </si>
@@ -45,10 +39,19 @@
     <t>Raw materials</t>
   </si>
   <si>
+    <t>Heating utilities</t>
+  </si>
+  <si>
+    <t>Cooling utilities</t>
+  </si>
+  <si>
+    <t>Other utilities</t>
+  </si>
+  <si>
     <t>By-products and credits</t>
   </si>
   <si>
-    <t>Total variable operating cost</t>
+    <t>Variable operating cost</t>
   </si>
   <si>
     <t>CSL</t>
@@ -84,22 +87,40 @@
     <t>Makeup water</t>
   </si>
   <si>
+    <t>Sugarcane</t>
+  </si>
+  <si>
+    <t>Sulfuric acid</t>
+  </si>
+  <si>
+    <t>Switchgrass</t>
+  </si>
+  <si>
+    <t>Low pressure steam</t>
+  </si>
+  <si>
+    <t>Chilled brine</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
     <t>Natural gas</t>
   </si>
   <si>
-    <t>Sugarcane</t>
-  </si>
-  <si>
-    <t>Sulfuric acid</t>
-  </si>
-  <si>
-    <t>Switchgrass</t>
-  </si>
-  <si>
     <t>Ash disposal</t>
   </si>
   <si>
-    <t>Electricity production [USD/kWh]</t>
+    <t>Electricity production</t>
+  </si>
+  <si>
+    <t>0.30626 USD/kmol</t>
+  </si>
+  <si>
+    <t>8.145e-06 USD/kJ</t>
+  </si>
+  <si>
+    <t>0.065 $/kWh</t>
   </si>
   <si>
     <t>Notes</t>
@@ -190,8 +211,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,16 +264,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -260,14 +275,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -314,7 +321,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -346,27 +353,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,24 +387,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -591,92 +562,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>51.550014774278502</v>
+        <v>51.5500147742785</v>
       </c>
       <c r="D2">
-        <v>0.20826594589798911</v>
+        <v>0.2079248586171555</v>
       </c>
       <c r="E2">
-        <v>0.15404996746971991</v>
+        <v>0.1540499612033964</v>
       </c>
       <c r="F2">
-        <v>0.48067557979899278</v>
+        <v>0.4806643453536973</v>
       </c>
       <c r="G2">
-        <v>0.23569471370813641</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+        <v>0.2356834507325928</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>895.32025659955434</v>
+        <v>895.3202565995543</v>
       </c>
       <c r="D3">
-        <v>0.45166736864860052</v>
+        <v>0.4508807855606792</v>
       </c>
       <c r="E3">
-        <v>0.32661029995007929</v>
+        <v>0.3266102855022938</v>
       </c>
       <c r="F3">
-        <v>0.91113536602454726</v>
+        <v>0.9111221723080964</v>
       </c>
       <c r="G3">
-        <v>0.39758689030997107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+        <v>0.3975736465165868</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>180.87005183751211</v>
+        <v>180.8700518375121</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -685,16 +645,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3.427802631084909</v>
+        <v>3.426907116137031</v>
       </c>
       <c r="G4">
-        <v>3.408184344086485</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+        <v>3.407288790433553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -712,34 +672,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>4532.1712989241851</v>
+        <v>4532.171298924185</v>
       </c>
       <c r="D6">
-        <v>1.3874625002936489E-2</v>
+        <v>0.01387462500293649</v>
       </c>
       <c r="E6">
-        <v>1.3397689315001481E-2</v>
+        <v>0.01339768931498243</v>
       </c>
       <c r="F6">
-        <v>3.3378476821458787E-2</v>
+        <v>0.03337036746632852</v>
       </c>
       <c r="G6">
-        <v>2.7899388816155609E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+        <v>0.02789142334348524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>136.07775000000001</v>
+        <v>136.07775</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -748,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.4873649222043539</v>
+        <v>1.487327039610325</v>
       </c>
       <c r="G7">
-        <v>0.70157509512630967</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+        <v>0.7015365537688014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>192.32321999999999</v>
+        <v>192.32322</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -775,40 +735,40 @@
         <v>22.70973540924593</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>2721.5549999999998</v>
+        <v>2721.555</v>
       </c>
       <c r="D9">
-        <v>1.6049370219679011E-2</v>
+        <v>0.01604258866604026</v>
       </c>
       <c r="E9">
-        <v>8.0644940568973793E-3</v>
+        <v>0.008055101337351954</v>
       </c>
       <c r="F9">
-        <v>2.5657695265929849E-2</v>
+        <v>0.02565599901228495</v>
       </c>
       <c r="G9">
-        <v>1.922267391389676E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+        <v>0.01922102885517908</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>453.59249999999997</v>
+        <v>453.5925</v>
       </c>
       <c r="D10">
-        <v>2.4000062399999988</v>
+        <v>2.400006239999999</v>
       </c>
       <c r="E10">
-        <v>2.4000062399999988</v>
+        <v>2.400006239999999</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -817,13 +777,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>69.853245000000001</v>
+        <v>69.853245</v>
       </c>
       <c r="D11">
         <v>0.12320032032</v>
@@ -838,76 +798,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>0.2300000659182164</v>
       </c>
       <c r="D12">
-        <v>0.1715004550925322</v>
+        <v>0.171475469110192</v>
       </c>
       <c r="E12">
-        <v>0.14170559871516561</v>
+        <v>0.1416709921430891</v>
       </c>
       <c r="F12">
-        <v>1.005156930607249</v>
+        <v>1.005827705059801</v>
       </c>
       <c r="G12">
-        <v>1.029677193545069</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+        <v>1.030348277050635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>197.76633000000001</v>
+        <v>31.34324175</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>55.28014372799998</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>55.28014372799998</v>
       </c>
       <c r="F13">
-        <v>5.1794239484265887</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>2.9934726642528808</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C14">
-        <v>31.343241750000001</v>
+        <v>81.39002332645057</v>
       </c>
       <c r="D14">
-        <v>55.280143727999977</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>55.280143727999977</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>18.7375096676753</v>
       </c>
       <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+        <v>18.7375096676753</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C15">
-        <v>81.390023326450574</v>
+        <v>72.5748</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -916,440 +876,500 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>18.742503969152569</v>
+        <v>66.03959577599998</v>
       </c>
       <c r="G15">
-        <v>18.742503969152569</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+        <v>66.03959577599998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16">
-        <v>72.574799999999996</v>
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>3.743139131984208E-15</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>66.039595775999999</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>66.039595775999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>6</v>
+        <v>7.203198038041592E-15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17">
-        <v>-28.860008271303151</v>
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>-1.378012300794643</v>
+        <v>0.01882821582728594</v>
       </c>
       <c r="E17">
-        <v>-1.3780083526476981</v>
+        <v>0.02007954923578539</v>
       </c>
       <c r="F17">
-        <v>-1.0416509020733471</v>
+        <v>18.75855467325733</v>
       </c>
       <c r="G17">
-        <v>-1.038649092233854</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
+        <v>18.75962436161964</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18">
-        <v>6.5000000000000002E-2</v>
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
       </c>
       <c r="D18">
-        <v>3.043123121424284</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>31.57973337092978</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>5.623981280677981E-15</v>
       </c>
       <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="1"/>
+        <v>7.430056570001398E-15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C19">
-        <v>9645.4127405492036</v>
+        <v>197.76633</v>
       </c>
       <c r="D19">
-        <v>56.999597232552077</v>
+        <v>0.0003894669838974772</v>
       </c>
       <c r="E19">
-        <v>28.245453319544762</v>
+        <v>0.0003894669838974772</v>
       </c>
       <c r="F19">
-        <v>121.08408160670589</v>
+        <v>0.0005541170875259175</v>
       </c>
       <c r="G19">
-        <v>117.3437972103913</v>
+        <v>0.0002798520957894578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>-28.848483</v>
+      </c>
+      <c r="D20">
+        <v>-0.0002869712479777334</v>
+      </c>
+      <c r="E20">
+        <v>-0.0002869704257755982</v>
+      </c>
+      <c r="F20">
+        <v>-0.0001314528563461289</v>
+      </c>
+      <c r="G20">
+        <v>-0.0001310739842897446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21">
+        <v>3.047359263871311</v>
+      </c>
+      <c r="E21">
+        <v>31.59864259585903</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>61.72983859071151</v>
+      </c>
+      <c r="E22">
+        <v>90.06595895947403</v>
+      </c>
+      <c r="F22">
+        <v>133.6166929353573</v>
+      </c>
+      <c r="G22">
+        <v>132.0661571633532</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A18"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="37.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2">
+        <v>82.60546757803314</v>
+      </c>
+      <c r="D2">
+        <v>55.61965543840563</v>
+      </c>
+      <c r="E2">
+        <v>213.0990745639182</v>
+      </c>
+      <c r="F2">
+        <v>191.3944990855251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3">
+        <v>93.41380673495442</v>
+      </c>
+      <c r="D3">
+        <v>110.0116179528529</v>
+      </c>
+      <c r="E3">
+        <v>165.9419593579377</v>
+      </c>
+      <c r="F3">
+        <v>136.3925899881534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4">
+        <v>3.304218703121326</v>
+      </c>
+      <c r="D4">
+        <v>2.224786217536225</v>
+      </c>
+      <c r="E4">
+        <v>8.523962982556727</v>
+      </c>
+      <c r="F4">
+        <v>7.655779963421005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>7.434492082022983</v>
+      </c>
+      <c r="D5">
+        <v>5.005768989456507</v>
+      </c>
+      <c r="E5">
+        <v>19.17891671075263</v>
+      </c>
+      <c r="F5">
+        <v>17.22550491769726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6">
+        <v>3.717246041011491</v>
+      </c>
+      <c r="D6">
+        <v>2.502884494728253</v>
+      </c>
+      <c r="E6">
+        <v>9.589458355376317</v>
+      </c>
+      <c r="F6">
+        <v>8.612752458848631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>190.4752311391434</v>
+      </c>
+      <c r="D7">
+        <v>175.3647130929795</v>
+      </c>
+      <c r="E7">
+        <v>416.3333719705416</v>
+      </c>
+      <c r="F7">
+        <v>361.2811264136454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C2">
-        <v>82.612573149736903</v>
-      </c>
-      <c r="D2">
-        <v>55.616540414583334</v>
-      </c>
-      <c r="E2">
-        <v>213.30601019688149</v>
-      </c>
-      <c r="F2">
-        <v>191.5927612310503</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3">
-        <v>92.817202404276117</v>
-      </c>
-      <c r="D3">
-        <v>108.8277530857746</v>
-      </c>
-      <c r="E3">
-        <v>165.50786413336479</v>
-      </c>
-      <c r="F3">
-        <v>135.70564047104889</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8">
+        <v>19.04752311391434</v>
+      </c>
+      <c r="D8">
+        <v>17.53647130929795</v>
+      </c>
+      <c r="E8">
+        <v>41.63333719705417</v>
+      </c>
+      <c r="F8">
+        <v>36.12811264136454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C4">
-        <v>3.304502925989476</v>
-      </c>
-      <c r="D4">
-        <v>2.2246616165833331</v>
-      </c>
-      <c r="E4">
-        <v>8.5322404078752587</v>
-      </c>
-      <c r="F4">
-        <v>7.6637104492420107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9">
+        <v>19.04752311391434</v>
+      </c>
+      <c r="D9">
+        <v>17.53647130929795</v>
+      </c>
+      <c r="E9">
+        <v>41.63333719705417</v>
+      </c>
+      <c r="F9">
+        <v>36.12811264136454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C5">
-        <v>7.4351315834763207</v>
-      </c>
-      <c r="D5">
-        <v>5.0054886373124994</v>
-      </c>
-      <c r="E5">
-        <v>19.19754091771933</v>
-      </c>
-      <c r="F5">
-        <v>17.243348510794529</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10">
+        <v>38.09504622782868</v>
+      </c>
+      <c r="D10">
+        <v>35.0729426185959</v>
+      </c>
+      <c r="E10">
+        <v>83.26667439410834</v>
+      </c>
+      <c r="F10">
+        <v>72.25622528272908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C6">
-        <v>3.7175657917381599</v>
-      </c>
-      <c r="D6">
-        <v>2.5027443186562501</v>
-      </c>
-      <c r="E6">
-        <v>9.598770458859665</v>
-      </c>
-      <c r="F6">
-        <v>8.621674255397263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7">
-        <v>189.886975855217</v>
-      </c>
-      <c r="D7">
-        <v>174.17718807291001</v>
-      </c>
-      <c r="E7">
-        <v>416.14242611470053</v>
-      </c>
-      <c r="F7">
-        <v>360.82713491753287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11">
+        <v>19.04752311391434</v>
+      </c>
+      <c r="D11">
+        <v>17.53647130929795</v>
+      </c>
+      <c r="E11">
+        <v>41.63333719705417</v>
+      </c>
+      <c r="F11">
+        <v>36.12811264136454</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C8">
-        <v>18.988697585521699</v>
-      </c>
-      <c r="D8">
-        <v>17.41771880729101</v>
-      </c>
-      <c r="E8">
-        <v>41.614242611470047</v>
-      </c>
-      <c r="F8">
-        <v>36.082713491753289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9">
-        <v>18.988697585521699</v>
-      </c>
-      <c r="D9">
-        <v>17.41771880729101</v>
-      </c>
-      <c r="E9">
-        <v>41.614242611470047</v>
-      </c>
-      <c r="F9">
-        <v>36.082713491753289</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12">
+        <v>19.04752311391434</v>
+      </c>
+      <c r="D12">
+        <v>17.53647130929795</v>
+      </c>
+      <c r="E12">
+        <v>41.63333719705417</v>
+      </c>
+      <c r="F12">
+        <v>36.12811264136454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C10">
-        <v>37.977395171043398</v>
-      </c>
-      <c r="D10">
-        <v>34.835437614582013</v>
-      </c>
-      <c r="E10">
-        <v>83.228485222940094</v>
-      </c>
-      <c r="F10">
-        <v>72.165426983506578</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11">
-        <v>18.988697585521699</v>
-      </c>
-      <c r="D11">
-        <v>17.41771880729101</v>
-      </c>
-      <c r="E11">
-        <v>41.614242611470047</v>
-      </c>
-      <c r="F11">
-        <v>36.082713491753289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12">
-        <v>18.988697585521699</v>
-      </c>
-      <c r="D12">
-        <v>17.41771880729101</v>
-      </c>
-      <c r="E12">
-        <v>41.614242611470047</v>
-      </c>
-      <c r="F12">
-        <v>36.082713491753289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C13">
-        <v>113.93218551313031</v>
+        <v>114.285138683486</v>
       </c>
       <c r="D13">
-        <v>104.5063128437461</v>
+        <v>105.2188278557877</v>
       </c>
       <c r="E13">
-        <v>249.6854556688202</v>
+        <v>249.8000231823248</v>
       </c>
       <c r="F13">
-        <v>216.49628095051989</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>216.7686758481872</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C14">
-        <v>303.81916136834701</v>
+        <v>304.7603698226294</v>
       </c>
       <c r="D14">
-        <v>278.6835009166561</v>
+        <v>280.5835409487672</v>
       </c>
       <c r="E14">
-        <v>665.82788178352064</v>
+        <v>666.1333951528665</v>
       </c>
       <c r="F14">
-        <v>577.32341586805273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>578.0498022618326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C15">
-        <v>15.19095806841737</v>
+        <v>15.23801849113147</v>
       </c>
       <c r="D15">
-        <v>13.934175045832809</v>
+        <v>14.02917704743836</v>
       </c>
       <c r="E15">
-        <v>33.29139408917603</v>
+        <v>33.30666975764333</v>
       </c>
       <c r="F15">
-        <v>28.866170793402642</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>28.90249011309163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C16">
-        <v>319.01011943676468</v>
+        <v>319.9983883137609</v>
       </c>
       <c r="D16">
-        <v>292.61767596248887</v>
+        <v>294.6127179962056</v>
       </c>
       <c r="E16">
-        <v>699.11927587269668</v>
+        <v>699.4400649105098</v>
       </c>
       <c r="F16">
-        <v>606.18958666145534</v>
+        <v>606.9522923749242</v>
       </c>
     </row>
   </sheetData>
